--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value849.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value849.xlsx
@@ -354,7 +354,7 @@
         <v>1.795269050464546</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.192668178971156</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value849.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value849.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7979147475206319</v>
+        <v>0.7219566702842712</v>
       </c>
       <c r="B1">
-        <v>1.795269050464546</v>
+        <v>1.05582857131958</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.401817560195923</v>
       </c>
       <c r="D1">
-        <v>2.192668178971156</v>
+        <v>3.745327711105347</v>
       </c>
       <c r="E1">
-        <v>1.410864381651878</v>
+        <v>2.054075479507446</v>
       </c>
     </row>
   </sheetData>
